--- a/Cacade chart.xlsx
+++ b/Cacade chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Year 12 python\Gun-dude\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack0\Python NEA\Gun-dude\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B60D8522-513D-4A77-8225-FAD3FACB70E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D3F50F-74F6-4B99-B35C-D7075894204C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-30" windowWidth="21600" windowHeight="11295" xr2:uid="{53A4CD84-09DF-4DB9-B714-750A2178C796}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{53A4CD84-09DF-4DB9-B714-750A2178C796}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Week 1</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Week 36</t>
   </si>
   <si>
-    <t>Research into similar systems</t>
-  </si>
-  <si>
     <t>Client interview</t>
   </si>
   <si>
@@ -166,13 +163,213 @@
   </si>
   <si>
     <t>Pseudocode algorithms</t>
+  </si>
+  <si>
+    <t>Hierarchy Chart</t>
+  </si>
+  <si>
+    <t>Class Tables</t>
+  </si>
+  <si>
+    <t>Data Structures table</t>
+  </si>
+  <si>
+    <t>Player movement</t>
+  </si>
+  <si>
+    <t>Week 37</t>
+  </si>
+  <si>
+    <t>Week 38</t>
+  </si>
+  <si>
+    <t>Week 39</t>
+  </si>
+  <si>
+    <t>Week 40</t>
+  </si>
+  <si>
+    <t>Week 41</t>
+  </si>
+  <si>
+    <t>Week 42</t>
+  </si>
+  <si>
+    <t>Week 43</t>
+  </si>
+  <si>
+    <t>Week 44</t>
+  </si>
+  <si>
+    <t>Week 45</t>
+  </si>
+  <si>
+    <t>Week 46</t>
+  </si>
+  <si>
+    <t>Week 47</t>
+  </si>
+  <si>
+    <t>Week 48</t>
+  </si>
+  <si>
+    <t>Player animations</t>
+  </si>
+  <si>
+    <t>Player level up system</t>
+  </si>
+  <si>
+    <t>Enemy movement</t>
+  </si>
+  <si>
+    <t>Enemy animations</t>
+  </si>
+  <si>
+    <t>Player and enemy
+ interactions</t>
+  </si>
+  <si>
+    <t>Basic game framework</t>
+  </si>
+  <si>
+    <t>Collectables 
+framework</t>
+  </si>
+  <si>
+    <t>Coin collectable</t>
+  </si>
+  <si>
+    <t>Scrap collectable</t>
+  </si>
+  <si>
+    <t>Nuke collectable</t>
+  </si>
+  <si>
+    <t>Health collectable</t>
+  </si>
+  <si>
+    <t>Player shooting/bullets</t>
+  </si>
+  <si>
+    <t>First stage 
+of testing</t>
+  </si>
+  <si>
+    <t>Main menu</t>
+  </si>
+  <si>
+    <t>Level selection screen</t>
+  </si>
+  <si>
+    <t>Game over screen</t>
+  </si>
+  <si>
+    <t>Level completion screen</t>
+  </si>
+  <si>
+    <t>Level analysis
+ and graphs</t>
+  </si>
+  <si>
+    <t>Pause screen</t>
+  </si>
+  <si>
+    <t>Graph screen</t>
+  </si>
+  <si>
+    <t>Main shop menu</t>
+  </si>
+  <si>
+    <t>Skill tree interface</t>
+  </si>
+  <si>
+    <t>Implement skills 
+into main game</t>
+  </si>
+  <si>
+    <t>Instruction screen</t>
+  </si>
+  <si>
+    <t>Skin selection interface</t>
+  </si>
+  <si>
+    <t>Skin selection / purchasing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up database </t>
+  </si>
+  <si>
+    <t>Connect completed levels to database</t>
+  </si>
+  <si>
+    <t>Connect purchased skins to database</t>
+  </si>
+  <si>
+    <t>Connect purchased skills to database</t>
+  </si>
+  <si>
+    <t>Connect level/enemy information to database</t>
+  </si>
+  <si>
+    <t>Login screen interface</t>
+  </si>
+  <si>
+    <t>Login system and accounts</t>
+  </si>
+  <si>
+    <t>Connect accounts to database</t>
+  </si>
+  <si>
+    <t>Second stage
+ of testing</t>
+  </si>
+  <si>
+    <t>Add boss levels</t>
+  </si>
+  <si>
+    <t>Research into 
+similar systems</t>
+  </si>
+  <si>
+    <t>Design and create 10 levels
+ increasing in difficulty</t>
+  </si>
+  <si>
+    <t>Test table</t>
+  </si>
+  <si>
+    <t>Compile test videos</t>
+  </si>
+  <si>
+    <t>Outline issues 
+and errors</t>
+  </si>
+  <si>
+    <t>Analyse feedback</t>
+  </si>
+  <si>
+    <t>Potential extensions and improvements</t>
+  </si>
+  <si>
+    <t>Final conclusion</t>
+  </si>
+  <si>
+    <t>Evaluate against
+ objectives</t>
+  </si>
+  <si>
+    <t>Make necessary
+ changes</t>
+  </si>
+  <si>
+    <t>Undertake client &amp; user feedback</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,13 +396,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8.8000000000000007"/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,8 +447,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3399"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -309,30 +532,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -462,34 +661,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -503,23 +678,10 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -531,10 +693,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -544,103 +706,223 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3399"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -653,9 +935,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -693,7 +975,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -799,7 +1081,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -941,7 +1223,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -949,677 +1231,1915 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE360297-659F-4F05-82A7-A7F259B7290E}">
-  <dimension ref="A1:AK34"/>
+  <dimension ref="A1:AX54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="AF2" zoomScale="54" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" style="1" customWidth="1"/>
+    <col min="2" max="49" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-    </row>
-    <row r="2" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9">
+    <row r="1" spans="1:50" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="11">
         <v>45170</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="12">
         <v>45200</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
       <c r="J2" s="12">
         <v>45231</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="5">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12">
         <v>45261</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="4">
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="11">
         <v>45292</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="4">
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12">
         <v>45323</v>
       </c>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="4">
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12">
         <v>45352</v>
       </c>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="4">
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12">
         <v>45383</v>
       </c>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="4">
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="11">
         <v>45413</v>
       </c>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="3"/>
-    </row>
-    <row r="3" spans="1:37" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="24" t="s">
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12">
+        <v>45444</v>
+      </c>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12">
+        <v>45474</v>
+      </c>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12">
+        <v>45505</v>
+      </c>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="9"/>
+    </row>
+    <row r="3" spans="1:50" s="6" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="N3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="28" t="s">
+      <c r="O3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="28" t="s">
+      <c r="P3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="S3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="28" t="s">
+      <c r="T3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="28" t="s">
+      <c r="U3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="28" t="s">
+      <c r="V3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="28" t="s">
+      <c r="W3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="28" t="s">
+      <c r="X3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="Y3" s="28" t="s">
+      <c r="Y3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="28" t="s">
+      <c r="Z3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="28" t="s">
+      <c r="AA3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" s="28" t="s">
+      <c r="AB3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AC3" s="28" t="s">
+      <c r="AC3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AD3" s="28" t="s">
+      <c r="AD3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AE3" s="28" t="s">
+      <c r="AE3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AF3" s="28" t="s">
+      <c r="AF3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AG3" s="28" t="s">
+      <c r="AG3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="28" t="s">
+      <c r="AH3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="AI3" s="28" t="s">
+      <c r="AI3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AJ3" s="28" t="s">
+      <c r="AJ3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AK3" s="28" t="s">
+      <c r="AK3" s="19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15" t="s">
+      <c r="AL3" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR3" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT3" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU3" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV3" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW3" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX3" s="5"/>
+    </row>
+    <row r="4" spans="1:50" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="29"/>
+      <c r="AR4" s="29"/>
+      <c r="AS4" s="29"/>
+      <c r="AT4" s="29"/>
+      <c r="AU4" s="29"/>
+      <c r="AV4" s="29"/>
+      <c r="AW4" s="38"/>
+    </row>
+    <row r="5" spans="1:50" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="22"/>
+      <c r="AR5" s="22"/>
+      <c r="AS5" s="22"/>
+      <c r="AT5" s="22"/>
+      <c r="AU5" s="22"/>
+      <c r="AV5" s="22"/>
+      <c r="AW5" s="39"/>
+    </row>
+    <row r="6" spans="1:50" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="T6" s="41"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="58"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="22"/>
+      <c r="AS6" s="22"/>
+      <c r="AT6" s="22"/>
+      <c r="AU6" s="22"/>
+      <c r="AV6" s="22"/>
+      <c r="AW6" s="39"/>
+    </row>
+    <row r="7" spans="1:50" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="U7" s="41"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="22"/>
+      <c r="AO7" s="22"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="22"/>
+      <c r="AR7" s="22"/>
+      <c r="AS7" s="22"/>
+      <c r="AT7" s="22"/>
+      <c r="AU7" s="22"/>
+      <c r="AV7" s="22"/>
+      <c r="AW7" s="39"/>
+    </row>
+    <row r="8" spans="1:50" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="41"/>
+      <c r="AM8" s="41"/>
+      <c r="AN8" s="22"/>
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="10"/>
+      <c r="AQ8" s="22"/>
+      <c r="AR8" s="22"/>
+      <c r="AS8" s="22"/>
+      <c r="AT8" s="22"/>
+      <c r="AU8" s="22"/>
+      <c r="AV8" s="22"/>
+      <c r="AW8" s="39"/>
+    </row>
+    <row r="9" spans="1:50" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="22"/>
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO9" s="41"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="22"/>
+      <c r="AU9" s="22"/>
+      <c r="AV9" s="22"/>
+      <c r="AW9" s="39"/>
+    </row>
+    <row r="10" spans="1:50" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="22"/>
+      <c r="AS10" s="22"/>
+      <c r="AT10" s="22"/>
+      <c r="AU10" s="22"/>
+      <c r="AV10" s="22"/>
+      <c r="AW10" s="39"/>
+    </row>
+    <row r="11" spans="1:50" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="66"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
-    </row>
-    <row r="5" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="20"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="18"/>
-      <c r="D7" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="20"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="20"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="E9" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="32" t="s">
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="22"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="47"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="22"/>
+      <c r="AS11" s="22"/>
+      <c r="AT11" s="22"/>
+      <c r="AU11" s="22"/>
+      <c r="AV11" s="22"/>
+      <c r="AW11" s="39"/>
+    </row>
+    <row r="12" spans="1:50" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="66"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="35" t="s">
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="22"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="22"/>
+      <c r="AO12" s="22"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="22"/>
+      <c r="AT12" s="22"/>
+      <c r="AU12" s="22"/>
+      <c r="AV12" s="22"/>
+      <c r="AW12" s="39"/>
+    </row>
+    <row r="13" spans="1:50" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="66"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="20"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="20"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="20"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="20"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="20"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="20"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="20"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="20"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="20"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="20"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="20"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="20"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="20"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="20"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="20"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="20"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="20"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="20"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="20"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="23"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="58"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="22"/>
+      <c r="AM13" s="22"/>
+      <c r="AN13" s="22"/>
+      <c r="AO13" s="22"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="22"/>
+      <c r="AT13" s="22"/>
+      <c r="AU13" s="22"/>
+      <c r="AV13" s="22"/>
+      <c r="AW13" s="39"/>
+    </row>
+    <row r="14" spans="1:50" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="66"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="58"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="22"/>
+      <c r="AR14" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS14" s="22"/>
+      <c r="AT14" s="22"/>
+      <c r="AU14" s="22"/>
+      <c r="AV14" s="22"/>
+      <c r="AW14" s="39"/>
+    </row>
+    <row r="15" spans="1:50" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="66"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="58"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="22"/>
+      <c r="AR15" s="47"/>
+      <c r="AS15" s="22"/>
+      <c r="AT15" s="22"/>
+      <c r="AU15" s="22"/>
+      <c r="AV15" s="22"/>
+      <c r="AW15" s="39"/>
+    </row>
+    <row r="16" spans="1:50" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="66"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="39"/>
+      <c r="AH16" s="58"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="22"/>
+      <c r="AR16" s="22"/>
+      <c r="AS16" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT16" s="22"/>
+      <c r="AU16" s="22"/>
+      <c r="AV16" s="22"/>
+      <c r="AW16" s="39"/>
+    </row>
+    <row r="17" spans="2:49" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="66"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="23"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="58"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="10"/>
+      <c r="AQ17" s="22"/>
+      <c r="AR17" s="22"/>
+      <c r="AS17" s="53"/>
+      <c r="AT17" s="10"/>
+      <c r="AU17" s="22"/>
+      <c r="AV17" s="22"/>
+      <c r="AW17" s="39"/>
+    </row>
+    <row r="18" spans="2:49" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="66"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="23"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="43"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="58"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="22"/>
+      <c r="AR18" s="22"/>
+      <c r="AS18" s="22"/>
+      <c r="AT18" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU18" s="22"/>
+      <c r="AV18" s="22"/>
+      <c r="AW18" s="39"/>
+    </row>
+    <row r="19" spans="2:49" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="66"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="58"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="10"/>
+      <c r="AQ19" s="22"/>
+      <c r="AR19" s="22"/>
+      <c r="AS19" s="22"/>
+      <c r="AT19" s="53"/>
+      <c r="AU19" s="22"/>
+      <c r="AV19" s="22"/>
+      <c r="AW19" s="39"/>
+    </row>
+    <row r="20" spans="2:49" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="66"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N20" s="23"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD20" s="41"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="58"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="22"/>
+      <c r="AM20" s="22"/>
+      <c r="AN20" s="22"/>
+      <c r="AO20" s="22"/>
+      <c r="AP20" s="22"/>
+      <c r="AQ20" s="22"/>
+      <c r="AR20" s="22"/>
+      <c r="AS20" s="22"/>
+      <c r="AT20" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU20" s="10"/>
+      <c r="AV20" s="22"/>
+      <c r="AW20" s="39"/>
+    </row>
+    <row r="21" spans="2:49" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="66"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="N21" s="23"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="58"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="10"/>
+      <c r="AQ21" s="10"/>
+      <c r="AR21" s="22"/>
+      <c r="AS21" s="22"/>
+      <c r="AT21" s="22"/>
+      <c r="AU21" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV21" s="22"/>
+      <c r="AW21" s="39"/>
+    </row>
+    <row r="22" spans="2:49" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="66"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG22" s="61"/>
+      <c r="AH22" s="58"/>
+      <c r="AI22" s="22"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="22"/>
+      <c r="AS22" s="22"/>
+      <c r="AT22" s="22"/>
+      <c r="AU22" s="53"/>
+      <c r="AV22" s="10"/>
+      <c r="AW22" s="39"/>
+    </row>
+    <row r="23" spans="2:49" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="66"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG23" s="61"/>
+      <c r="AH23" s="58"/>
+      <c r="AI23" s="22"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="10"/>
+      <c r="AR23" s="22"/>
+      <c r="AS23" s="22"/>
+      <c r="AT23" s="22"/>
+      <c r="AU23" s="22"/>
+      <c r="AV23" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW23" s="39"/>
+    </row>
+    <row r="24" spans="2:49" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="66"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG24" s="61"/>
+      <c r="AH24" s="58"/>
+      <c r="AI24" s="22"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="10"/>
+      <c r="AQ24" s="10"/>
+      <c r="AR24" s="22"/>
+      <c r="AS24" s="22"/>
+      <c r="AT24" s="22"/>
+      <c r="AU24" s="22"/>
+      <c r="AV24" s="52"/>
+      <c r="AW24" s="39"/>
+    </row>
+    <row r="25" spans="2:49" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="66"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG25" s="61"/>
+      <c r="AH25" s="58"/>
+      <c r="AI25" s="22"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="10"/>
+      <c r="AQ25" s="10"/>
+      <c r="AR25" s="22"/>
+      <c r="AS25" s="22"/>
+      <c r="AT25" s="22"/>
+      <c r="AU25" s="22"/>
+      <c r="AV25" s="52"/>
+      <c r="AW25" s="15"/>
+    </row>
+    <row r="26" spans="2:49" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="66"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="22"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="10"/>
+      <c r="AQ26" s="10"/>
+      <c r="AR26" s="22"/>
+      <c r="AS26" s="22"/>
+      <c r="AT26" s="22"/>
+      <c r="AU26" s="22"/>
+      <c r="AV26" s="22"/>
+      <c r="AW26" s="55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="2:49" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="66"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="22"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="10"/>
+      <c r="AO27" s="10"/>
+      <c r="AP27" s="10"/>
+      <c r="AQ27" s="10"/>
+      <c r="AR27" s="22"/>
+      <c r="AS27" s="22"/>
+      <c r="AT27" s="22"/>
+      <c r="AU27" s="22"/>
+      <c r="AV27" s="22"/>
+      <c r="AW27" s="39"/>
+    </row>
+    <row r="28" spans="2:49" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="66"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
+      <c r="AP28" s="10"/>
+      <c r="AQ28" s="10"/>
+      <c r="AR28" s="22"/>
+      <c r="AS28" s="10"/>
+      <c r="AT28" s="22"/>
+      <c r="AU28" s="22"/>
+      <c r="AV28" s="22"/>
+      <c r="AW28" s="39"/>
+    </row>
+    <row r="29" spans="2:49" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="66"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
+      <c r="AG29" s="39"/>
+      <c r="AH29" s="58"/>
+      <c r="AI29" s="22"/>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="10"/>
+      <c r="AO29" s="10"/>
+      <c r="AP29" s="10"/>
+      <c r="AQ29" s="10"/>
+      <c r="AR29" s="22"/>
+      <c r="AS29" s="22"/>
+      <c r="AT29" s="22"/>
+      <c r="AU29" s="22"/>
+      <c r="AV29" s="22"/>
+      <c r="AW29" s="39"/>
+    </row>
+    <row r="30" spans="2:49" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="66"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="39"/>
+      <c r="AH30" s="58"/>
+      <c r="AI30" s="22"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="10"/>
+      <c r="AO30" s="10"/>
+      <c r="AP30" s="10"/>
+      <c r="AQ30" s="10"/>
+      <c r="AR30" s="22"/>
+      <c r="AS30" s="22"/>
+      <c r="AT30" s="22"/>
+      <c r="AU30" s="22"/>
+      <c r="AV30" s="22"/>
+      <c r="AW30" s="39"/>
+    </row>
+    <row r="31" spans="2:49" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="66"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
+      <c r="AG31" s="39"/>
+      <c r="AH31" s="58"/>
+      <c r="AI31" s="22"/>
+      <c r="AJ31" s="22"/>
+      <c r="AK31" s="22"/>
+      <c r="AL31" s="22"/>
+      <c r="AM31" s="22"/>
+      <c r="AN31" s="22"/>
+      <c r="AO31" s="22"/>
+      <c r="AP31" s="22"/>
+      <c r="AQ31" s="22"/>
+      <c r="AR31" s="22"/>
+      <c r="AS31" s="22"/>
+      <c r="AT31" s="22"/>
+      <c r="AU31" s="22"/>
+      <c r="AV31" s="22"/>
+      <c r="AW31" s="39"/>
+    </row>
+    <row r="32" spans="2:49" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="66"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="22"/>
+      <c r="AF32" s="22"/>
+      <c r="AG32" s="39"/>
+      <c r="AH32" s="58"/>
+      <c r="AI32" s="22"/>
+      <c r="AJ32" s="22"/>
+      <c r="AK32" s="22"/>
+      <c r="AL32" s="22"/>
+      <c r="AM32" s="22"/>
+      <c r="AN32" s="22"/>
+      <c r="AO32" s="22"/>
+      <c r="AP32" s="22"/>
+      <c r="AQ32" s="22"/>
+      <c r="AR32" s="22"/>
+      <c r="AS32" s="22"/>
+      <c r="AT32" s="22"/>
+      <c r="AU32" s="22"/>
+      <c r="AV32" s="22"/>
+      <c r="AW32" s="39"/>
+    </row>
+    <row r="33" spans="2:49" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="67"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="36"/>
+      <c r="AB33" s="36"/>
+      <c r="AC33" s="36"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="36"/>
+      <c r="AF33" s="36"/>
+      <c r="AG33" s="40"/>
+      <c r="AH33" s="59"/>
+      <c r="AI33" s="36"/>
+      <c r="AJ33" s="36"/>
+      <c r="AK33" s="36"/>
+      <c r="AL33" s="36"/>
+      <c r="AM33" s="36"/>
+      <c r="AN33" s="36"/>
+      <c r="AO33" s="36"/>
+      <c r="AP33" s="36"/>
+      <c r="AQ33" s="36"/>
+      <c r="AR33" s="36"/>
+      <c r="AS33" s="36"/>
+      <c r="AT33" s="36"/>
+      <c r="AU33" s="36"/>
+      <c r="AV33" s="36"/>
+      <c r="AW33" s="40"/>
+    </row>
+    <row r="54" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N54" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="44">
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="AP10:AP11"/>
+    <mergeCell ref="AL7:AM8"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="AF23:AG23"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="AA17:AB18"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="AR14:AR15"/>
+    <mergeCell ref="AS16:AS17"/>
+    <mergeCell ref="AT18:AT19"/>
+    <mergeCell ref="AU21:AU22"/>
+    <mergeCell ref="AV23:AV25"/>
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F11:G11"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="R2:U2"/>
     <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="C5:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
